--- a/Tantermek Pongracz Vencel.xlsx
+++ b/Tantermek Pongracz Vencel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanuló\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanuló\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE2DB6-E35C-4547-8A0A-078E66416C43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2929C-B961-461C-8BE1-5CEE1ABCBFB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5D435792-9143-48F2-B3DC-25F8FBF3CE6D}"/>
   </bookViews>
@@ -25,97 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
-  <si>
-    <t>16 Kiss Csaba</t>
-  </si>
-  <si>
-    <t>17 Horváth Gyula</t>
-  </si>
-  <si>
-    <t>30 Vidra András</t>
-  </si>
-  <si>
-    <t>31 Kriston Aranka</t>
-  </si>
-  <si>
-    <t>33 Kiss Tamás</t>
-  </si>
-  <si>
-    <t>34 Nagy Ferenc</t>
-  </si>
-  <si>
-    <t>39 Gépész</t>
-  </si>
-  <si>
-    <t>44 Juhász Róbert</t>
-  </si>
-  <si>
-    <t>46 NYÁK Labor</t>
-  </si>
-  <si>
-    <t>47 Fresz Péter</t>
-  </si>
-  <si>
-    <t>48 Varga László</t>
-  </si>
-  <si>
-    <t>52 Vadai Tamás</t>
-  </si>
-  <si>
-    <t>57 Zabari Tibor</t>
-  </si>
-  <si>
-    <t>58 Lakatos Tibor</t>
-  </si>
-  <si>
-    <t>59 Schilling Ferenc</t>
-  </si>
-  <si>
-    <t>60 Gépműhely</t>
-  </si>
-  <si>
-    <t>60E Gépműhely</t>
-  </si>
-  <si>
-    <t>63 Kriston Dávid</t>
-  </si>
-  <si>
-    <t>113 Tanácsterem</t>
-  </si>
-  <si>
-    <t>117 Seyfried Katalin</t>
-  </si>
-  <si>
-    <t>119 Mackovic Andrea</t>
-  </si>
-  <si>
-    <t>122 Ivan Tünde</t>
-  </si>
-  <si>
-    <t>124 Tóth Irén</t>
-  </si>
-  <si>
-    <t>126 Nagy Annamária</t>
-  </si>
-  <si>
-    <t>127 Bakai Andrea</t>
-  </si>
-  <si>
-    <t>129 Kiss Gábor</t>
-  </si>
-  <si>
-    <t>130 Kovács János</t>
-  </si>
-  <si>
-    <t>131 Kujbus Gábor</t>
-  </si>
-  <si>
-    <t>136 Biró Ildikó</t>
-  </si>
-  <si>
-    <t>137 Varga László</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>138 Horváth János</t>
   </si>
@@ -289,6 +199,96 @@
   </si>
   <si>
     <t>Karikó-Tóth Tamás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiss Csaba</t>
+  </si>
+  <si>
+    <t>Horváth Gyula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vidra András</t>
+  </si>
+  <si>
+    <t>Kriston Aranka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiss Tamás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagy Ferenc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gépész</t>
+  </si>
+  <si>
+    <t>Juhász Róbert</t>
+  </si>
+  <si>
+    <t>NYÁK Labor</t>
+  </si>
+  <si>
+    <t>Fresz Péter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Varga László</t>
+  </si>
+  <si>
+    <t>Vadai Tamás</t>
+  </si>
+  <si>
+    <t>Zabari Tibor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lakatos Tibor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schilling Ferenc</t>
+  </si>
+  <si>
+    <t>Gépműhely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gépműhely</t>
+  </si>
+  <si>
+    <t>60E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kriston Dávid</t>
+  </si>
+  <si>
+    <t>Tanácsterem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seyfried Katalin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mackovic Andrea</t>
+  </si>
+  <si>
+    <t>Ivan Tünde</t>
+  </si>
+  <si>
+    <t>Tóth Irén</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagy Annamária</t>
+  </si>
+  <si>
+    <t>Bakai Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiss Gábor</t>
+  </si>
+  <si>
+    <t>Kovács János</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kujbus Gábor</t>
+  </si>
+  <si>
+    <t>Biró Ildikó</t>
   </si>
 </sst>
 </file>
@@ -332,11 +332,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -653,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E0F1A1-93F5-4EDE-ADEF-DB2174D80630}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D86"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,10 +668,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -679,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -688,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -697,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -706,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -715,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -724,409 +725,529 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+    <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+    <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+    <row r="43" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+    <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="47" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    <row r="49" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+    <row r="50" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+    <row r="51" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+    <row r="52" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    <row r="53" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+    <row r="54" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
+    <row r="55" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="4:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="48" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" ht="48" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" ht="48" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="36" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" ht="36" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="4:4" ht="36" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="4:4" ht="60" x14ac:dyDescent="0.25">
       <c r="D75" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" ht="48" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D77" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" ht="48" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" ht="48" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="24" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="4:4" ht="48" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" ht="24" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
